--- a/data/trecvid/dataset.xlsx
+++ b/data/trecvid/dataset.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
